--- a/config/foxconfig/sign.xlsx
+++ b/config/foxconfig/sign.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="sign_daily|每日签到" sheetId="4" r:id="rId1"/>
     <sheet name="sign_acc累计签到" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -430,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -477,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B34" si="0">CONCATENATE("3;0;",100*A5)</f>
+        <f t="shared" ref="B5:B35" si="0">CONCATENATE("3;0;",100*A5)</f>
         <v>3;0;100</v>
       </c>
     </row>
@@ -740,6 +742,15 @@
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3;0;3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3;0;3100</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -813,11 +824,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B34" si="0">7*A5</f>
+        <f t="shared" ref="B5:B35" si="0">7*A5</f>
         <v>7</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C34" si="1">CONCATENATE("2;0;",10*A5)</f>
+        <f t="shared" ref="C5:C35" si="1">CONCATENATE("2;0;",10*A5)</f>
         <v>2;0;10</v>
       </c>
     </row>
@@ -1196,6 +1207,19 @@
       <c r="C34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>2;0;300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;310</v>
       </c>
     </row>
   </sheetData>

--- a/config/foxconfig/sign.xlsx
+++ b/config/foxconfig/sign.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\FoxCard\config\foxconfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69C56C6-F404-413C-9EC7-0DEE30751828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sign_daily|每日签到" sheetId="4" r:id="rId1"/>
-    <sheet name="sign_acc累计签到" sheetId="5" r:id="rId2"/>
+    <sheet name="sign_acc7|七日累计签到" sheetId="6" r:id="rId2"/>
+    <sheet name="sign_acc累计签到" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -63,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,6 +169,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -761,10 +758,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF737ED-6497-4B22-A87B-6BEFB4C866A3}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1227,4 +1224,473 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B35" si="0">7*A5</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C35" si="1">CONCATENATE("2;0;",10*A5)</f>
+        <v>2;0;10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2;0;310</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/config/foxconfig/sign.xlsx
+++ b/config/foxconfig/sign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\FoxCard\config\foxconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69C56C6-F404-413C-9EC7-0DEE30751828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0FF15-26C6-42BE-8015-83AC1E26FED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sign_daily|每日签到" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -53,12 +53,28 @@
   <si>
     <t>所需天数</t>
   </si>
+  <si>
+    <t>星期id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励组id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3_int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +106,20 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -141,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +188,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -759,16 +795,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF737ED-6497-4B22-A87B-6BEFB4C866A3}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -776,8 +812,8 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -790,8 +826,8 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -806,11 +842,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -821,11 +857,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B35" si="0">7*A5</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C35" si="1">CONCATENATE("2;0;",10*A5)</f>
+        <f>CONCATENATE("2;0;",10*A5)</f>
         <v>2;0;10</v>
       </c>
     </row>
@@ -834,11 +869,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("2;0;",10*A6)</f>
         <v>2;0;20</v>
       </c>
     </row>
@@ -847,11 +881,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("2;0;",10*A7)</f>
         <v>2;0;30</v>
       </c>
     </row>
@@ -860,11 +893,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("2;0;",10*A8)</f>
         <v>2;0;40</v>
       </c>
     </row>
@@ -873,11 +905,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("2;0;",10*A9)</f>
         <v>2;0;50</v>
       </c>
     </row>
@@ -886,11 +917,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("2;0;",10*A10)</f>
         <v>2;0;60</v>
       </c>
     </row>
@@ -899,324 +929,263 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("2;0;",10*A11)</f>
         <v>2;0;70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;80</v>
+        <f>CONCATENATE("2;0;",10*A12)</f>
+        <v>2;0;10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;90</v>
+        <f>CONCATENATE("2;0;",10*A13)</f>
+        <v>2;0;20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;100</v>
+        <f>CONCATENATE("2;0;",10*A14)</f>
+        <v>2;0;30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;110</v>
+        <f>CONCATENATE("2;0;",10*A15)</f>
+        <v>2;0;40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;120</v>
+        <f>CONCATENATE("2;0;",10*A16)</f>
+        <v>2;0;50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;130</v>
+        <f>CONCATENATE("2;0;",10*A17)</f>
+        <v>2;0;60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;140</v>
+        <f>CONCATENATE("2;0;",10*A18)</f>
+        <v>2;0;70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;150</v>
+        <f>CONCATENATE("2;0;",10*A19)</f>
+        <v>2;0;10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;160</v>
+        <f>CONCATENATE("2;0;",10*A20)</f>
+        <v>2;0;20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;170</v>
+        <f>CONCATENATE("2;0;",10*A21)</f>
+        <v>2;0;30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;180</v>
+        <f>CONCATENATE("2;0;",10*A22)</f>
+        <v>2;0;40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;190</v>
+        <f>CONCATENATE("2;0;",10*A23)</f>
+        <v>2;0;50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;200</v>
+        <f>CONCATENATE("2;0;",10*A24)</f>
+        <v>2;0;60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;210</v>
+        <f>CONCATENATE("2;0;",10*A25)</f>
+        <v>2;0;70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;220</v>
+        <f>CONCATENATE("2;0;",10*A26)</f>
+        <v>2;0;10</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;230</v>
+        <f>CONCATENATE("2;0;",10*A27)</f>
+        <v>2;0;20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;240</v>
+        <f>CONCATENATE("2;0;",10*A28)</f>
+        <v>2;0;30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;250</v>
+        <f>CONCATENATE("2;0;",10*A29)</f>
+        <v>2;0;40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;260</v>
+        <f>CONCATENATE("2;0;",10*A30)</f>
+        <v>2;0;50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;270</v>
+        <f>CONCATENATE("2;0;",10*A31)</f>
+        <v>2;0;60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="C34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>217</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2;0;310</v>
+        <f>CONCATENATE("2;0;",10*A32)</f>
+        <v>2;0;70</v>
       </c>
     </row>
   </sheetData>
